--- a/DESIGN/rules/PetInsure1/Main.xlsx
+++ b/DESIGN/rules/PetInsure1/Main.xlsx
@@ -1,35 +1,790 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knu2\Downloads\PetInsurance-DEFAULT-2021-06-07_14-45-50\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9DBFBA-EFE3-493E-AD50-39F0770D5B39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="19635" windowHeight="8190"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Rules" sheetId="5" r:id="rId1"/>
+    <sheet name="Calculate" sheetId="5" r:id="rId1"/>
+    <sheet name="Rules" sheetId="8" r:id="rId2"/>
+    <sheet name="Datatype" sheetId="7" r:id="rId3"/>
+    <sheet name="Vocabulary" sheetId="6" r:id="rId4"/>
+    <sheet name="Utilities" sheetId="9" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="driver_type">[1]Vocabulary!$C$60:$C$62</definedName>
+    <definedName name="eligibilityType">[1]Vocabulary!$C$49:$C$51</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="83">
+  <si>
+    <t>Shih Tzu</t>
+  </si>
+  <si>
+    <t>Aspin/Medium Cross</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Breed</t>
+  </si>
+  <si>
+    <t>breed</t>
+  </si>
+  <si>
+    <t>ageInYears</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>Pet[]</t>
+  </si>
+  <si>
+    <t>pets</t>
+  </si>
+  <si>
+    <t>RETURN</t>
+  </si>
+  <si>
+    <t>Pug</t>
+  </si>
+  <si>
+    <t>3522.5</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>BasePremium</t>
+  </si>
+  <si>
+    <t>Pet</t>
+  </si>
+  <si>
+    <t>Unique Pet Id</t>
+  </si>
+  <si>
+    <t>= pet</t>
+  </si>
+  <si>
+    <t>Determine Pet age</t>
+  </si>
+  <si>
+    <t>Current Year</t>
+  </si>
+  <si>
+    <t>= Calendar.getInstance().get(Calendar.YEAR);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">SimpleRules Integer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>CurrentYear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> ()</t>
+    </r>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF969696"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Spreadsheet SpreadsheetResult </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>DeterminePetPremium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF969696"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Pet pet)</t>
+    </r>
+  </si>
+  <si>
+    <t>Determine Base Premium by breed and age</t>
+  </si>
+  <si>
+    <t>PremiumTax</t>
+  </si>
+  <si>
+    <t>Get Premium Tax</t>
+  </si>
+  <si>
+    <t>= BasePremium ( breed, $Age )</t>
+  </si>
+  <si>
+    <t>= CurrentYear() - yearOfBirth</t>
+  </si>
+  <si>
+    <t>yearOfBirth</t>
+  </si>
+  <si>
+    <t>LGT</t>
+  </si>
+  <si>
+    <t>Get Local Government Tax</t>
+  </si>
+  <si>
+    <t>= $BasePremium*0.02</t>
+  </si>
+  <si>
+    <t>= $BasePremium*0.002</t>
+  </si>
+  <si>
+    <t>PremiumAndTaxes</t>
+  </si>
+  <si>
+    <t>Calculate Total Premium and Taxes</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Datatype </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Gender</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>&lt;String&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Datatype </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Breed</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>&lt;String&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Mixed Breed(Small)</t>
+  </si>
+  <si>
+    <t>Siberian Husky</t>
+  </si>
+  <si>
+    <t>Chihuahua</t>
+  </si>
+  <si>
+    <t>Labrador</t>
+  </si>
+  <si>
+    <t>Dachshund</t>
+  </si>
+  <si>
+    <t>Poodle</t>
+  </si>
+  <si>
+    <t>French Bulldog</t>
+  </si>
+  <si>
+    <t>&lt;7</t>
+  </si>
+  <si>
+    <t>&gt;6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Datatype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Policy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Datatype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Pet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">SimpleRules Double </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>BasePremium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Breed breed, int ageInYears)</t>
+    </r>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>Get coverage</t>
+  </si>
+  <si>
+    <t>= BaseCoverage ( breed, $Age )</t>
+  </si>
+  <si>
+    <t>RoundedPremiumTax</t>
+  </si>
+  <si>
+    <t>Display version of Premium Tax</t>
+  </si>
+  <si>
+    <t>= round($PremiumTax, 2)</t>
+  </si>
+  <si>
+    <t>RoundedLGT</t>
+  </si>
+  <si>
+    <t>Display version of LGT</t>
+  </si>
+  <si>
+    <t>= round($LGT, 2)</t>
+  </si>
+  <si>
+    <t>= round( sum ( $BasePremium:$LGT ), 2)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">SimpleRules Double </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>BaseCoverage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Breed breed, int ageInYears)</t>
+    </r>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Datatype </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>PackageType</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="55"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>&lt;String&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">PackageType </t>
+  </si>
+  <si>
+    <t>package</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF969696"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Spreadsheet SpreadsheetResult </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>DeterminePolicyPremium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF969696"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Policy policy)</t>
+    </r>
+  </si>
+  <si>
+    <t>Policy</t>
+  </si>
+  <si>
+    <t>Unique Policy Id</t>
+  </si>
+  <si>
+    <t>= policy</t>
+  </si>
+  <si>
+    <t>Pets</t>
+  </si>
+  <si>
+    <t>Execute Premium calculation for each pet</t>
+  </si>
+  <si>
+    <t>=DeterminePetPremium(pets)</t>
+  </si>
+  <si>
+    <t>PetsPremium</t>
+  </si>
+  <si>
+    <t>Get Total Pets Premium</t>
+  </si>
+  <si>
+    <t>= sum ( $Value$PremiumAndTaxes ( $Pets ))</t>
+  </si>
+  <si>
+    <t>Calculate Policy Total Premium and Taxes</t>
+  </si>
+  <si>
+    <t>= $PetsPremium</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="&quot;Franklin Gothik Book&quot;"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="&quot;Franklin Gothik Book&quot;"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="55"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF969696"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="55"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6A6A6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -37,12 +792,217 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFC000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFC000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFC000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="11" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -53,8 +1013,79 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Calculation"/>
+      <sheetName val="Vehicle-Eligibility"/>
+      <sheetName val="Vehicle-Scoring"/>
+      <sheetName val="Driver-Eligibility"/>
+      <sheetName val="Driver-Scoring"/>
+      <sheetName val="Client-Scoring"/>
+      <sheetName val="Policy-Eligibility"/>
+      <sheetName val="Vehicle-Premium"/>
+      <sheetName val="Driver-Premium"/>
+      <sheetName val="Policy-Premium"/>
+      <sheetName val="Domain"/>
+      <sheetName val="Vocabulary"/>
+      <sheetName val="Utilities"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
+        <row r="49">
+          <cell r="C49" t="str">
+            <v>Not Eligible</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="C50" t="str">
+            <v>Provisional</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="C51" t="str">
+            <v>Eligible</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="C60" t="str">
+            <v>Young Driver</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="C61" t="str">
+            <v>Senior Driver</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="C62" t="str">
+            <v>Standard Driver</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -100,7 +1131,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,9 +1164,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -168,6 +1216,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -343,13 +1408,1243 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="45.21875" customWidth="1"/>
+    <col min="5" max="5" width="55.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="13.8">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:6" ht="13.8">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="2:6" ht="13.8">
+      <c r="B5" s="4"/>
+      <c r="C5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="2:6" ht="13.8">
+      <c r="B6" s="4"/>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="2:6" ht="13.8">
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="2:6" ht="13.8">
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="2:6" s="3" customFormat="1" ht="13.8">
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="2:6" ht="13.8">
+      <c r="B10" s="4"/>
+      <c r="C10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="2:6" ht="13.8">
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="2:6" ht="13.8">
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="2:6" s="3" customFormat="1" ht="13.8">
+      <c r="B13" s="4"/>
+      <c r="C13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="2:6" s="3" customFormat="1" ht="13.8">
+      <c r="B14" s="4"/>
+      <c r="C14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="2:6" ht="13.8">
+      <c r="B15" s="4"/>
+      <c r="C15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="18" spans="2:6" ht="13.8">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="2:6" ht="13.8">
+      <c r="B19" s="4"/>
+      <c r="C19" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="2:6" ht="13.8">
+      <c r="B20" s="4"/>
+      <c r="C20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="2:6" ht="13.8">
+      <c r="B21" s="4"/>
+      <c r="C21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="2:6" ht="13.8">
+      <c r="B22" s="4"/>
+      <c r="C22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="2:6" ht="13.8">
+      <c r="B23" s="4"/>
+      <c r="C23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="2:6" ht="13.8">
+      <c r="B24" s="4"/>
+      <c r="C24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C19:E19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B2:F49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="3" max="5" width="25.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="36"/>
+    </row>
+    <row r="3" spans="2:6" ht="16.2">
+      <c r="B3" s="36"/>
+      <c r="C3" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="36"/>
+    </row>
+    <row r="4" spans="2:6" ht="13.8">
+      <c r="B4" s="36"/>
+      <c r="C4" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="36"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="36"/>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="36"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="36"/>
+      <c r="C6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="36"/>
+      <c r="C7" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="36"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="36"/>
+      <c r="C8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="36"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="36"/>
+      <c r="C9" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="36"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="36"/>
+      <c r="C10" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="36"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="36"/>
+      <c r="C11" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="36"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="36"/>
+      <c r="C12" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="36"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="36"/>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5381.6</v>
+      </c>
+      <c r="F13" s="36"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="36"/>
+      <c r="C14" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="2">
+        <v>5381.6</v>
+      </c>
+      <c r="F14" s="36"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="36"/>
+      <c r="C15" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5381.6</v>
+      </c>
+      <c r="F15" s="36"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="36"/>
+      <c r="C16" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5381.6</v>
+      </c>
+      <c r="F16" s="36"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="36"/>
+      <c r="C17" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5381.6</v>
+      </c>
+      <c r="F17" s="36"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="36"/>
+      <c r="C18" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5381.6</v>
+      </c>
+      <c r="F18" s="36"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="36"/>
+      <c r="C19" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5381.6</v>
+      </c>
+      <c r="F19" s="36"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="36"/>
+      <c r="C20" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5381.6</v>
+      </c>
+      <c r="F20" s="36"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="36"/>
+      <c r="C21" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4696.68</v>
+      </c>
+      <c r="F21" s="36"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="36"/>
+      <c r="C22" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4696.68</v>
+      </c>
+      <c r="F22" s="36"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="36"/>
+      <c r="C23" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="2">
+        <v>6555.77</v>
+      </c>
+      <c r="F23" s="36"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="36"/>
+      <c r="C24" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="43">
+        <v>6555.77</v>
+      </c>
+      <c r="F24" s="36"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="36"/>
+    </row>
+    <row r="27" spans="2:6" ht="16.2">
+      <c r="B27" s="36"/>
+      <c r="C27" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="36"/>
+    </row>
+    <row r="28" spans="2:6" ht="13.8">
+      <c r="B28" s="36"/>
+      <c r="C28" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="36"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="36"/>
+      <c r="C29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F29" s="36"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="36"/>
+      <c r="C30" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F30" s="36"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="36"/>
+      <c r="C31" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F31" s="36"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="36"/>
+      <c r="C32" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F32" s="36"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="36"/>
+      <c r="C33" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F33" s="36"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="36"/>
+      <c r="C34" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F34" s="36"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="36"/>
+      <c r="C35" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F35" s="36"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="36"/>
+      <c r="C36" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F36" s="36"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="36"/>
+      <c r="C37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F37" s="36"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="36"/>
+      <c r="C38" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F38" s="36"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="36"/>
+      <c r="C39" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F39" s="36"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="36"/>
+      <c r="C40" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F40" s="36"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="36"/>
+      <c r="C41" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F41" s="36"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="36"/>
+      <c r="C42" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F42" s="36"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="36"/>
+      <c r="C43" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F43" s="36"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="36"/>
+      <c r="C44" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F44" s="36"/>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="36"/>
+      <c r="C45" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F45" s="36"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="36"/>
+      <c r="C46" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F46" s="36"/>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="36"/>
+      <c r="C47" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F47" s="36"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="36"/>
+      <c r="C48" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F48" s="36"/>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C27:E27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B5:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:6" ht="13.8">
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="27"/>
+    </row>
+    <row r="6" spans="2:6" ht="13.8">
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" spans="2:6" ht="16.2">
+      <c r="B7" s="27"/>
+      <c r="C7" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="27"/>
+    </row>
+    <row r="8" spans="2:6" ht="13.8">
+      <c r="B8" s="27"/>
+      <c r="C8" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="27"/>
+    </row>
+    <row r="9" spans="2:6" ht="13.8">
+      <c r="B9" s="27"/>
+      <c r="C9" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="27"/>
+    </row>
+    <row r="10" spans="2:6" ht="13.8">
+      <c r="B10" s="27"/>
+      <c r="C10" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="27"/>
+    </row>
+    <row r="11" spans="2:6" ht="13.8">
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="27"/>
+    </row>
+    <row r="12" spans="2:6" ht="13.8">
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="27"/>
+    </row>
+    <row r="15" spans="2:6" ht="13.8">
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="27"/>
+    </row>
+    <row r="16" spans="2:6" ht="13.8">
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" spans="2:6" ht="16.2">
+      <c r="B17" s="27"/>
+      <c r="C17" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="2:6" ht="13.8">
+      <c r="B18" s="27"/>
+      <c r="C18" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="27"/>
+    </row>
+    <row r="19" spans="2:6" s="3" customFormat="1" ht="13.8">
+      <c r="B19" s="27"/>
+      <c r="C19" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="32"/>
+      <c r="F19" s="27"/>
+    </row>
+    <row r="20" spans="2:6" ht="13.8">
+      <c r="B20" s="27"/>
+      <c r="C20" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="35"/>
+      <c r="F20" s="27"/>
+    </row>
+    <row r="21" spans="2:6" ht="13.8">
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="27"/>
+    </row>
+    <row r="22" spans="2:6" ht="13.8">
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C17:E17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="16.2">
+      <c r="C2" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="C3" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" s="3" customFormat="1">
+      <c r="B4" s="18"/>
+      <c r="C4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="2:4" s="3" customFormat="1">
+      <c r="B5" s="18"/>
+      <c r="C5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" spans="2:4" s="3" customFormat="1">
+      <c r="B6" s="18"/>
+      <c r="C6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" spans="2:4" s="3" customFormat="1">
+      <c r="B7" s="18"/>
+      <c r="C7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" spans="2:4" s="3" customFormat="1">
+      <c r="B8" s="18"/>
+      <c r="C8" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="18"/>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="C9" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" s="3" customFormat="1">
+      <c r="B10" s="18"/>
+      <c r="C10" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="18"/>
+    </row>
+    <row r="11" spans="2:4" s="3" customFormat="1">
+      <c r="B11" s="18"/>
+      <c r="C11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="2:4" s="3" customFormat="1">
+      <c r="B12" s="18"/>
+      <c r="C12" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="18"/>
+    </row>
+    <row r="14" spans="2:4" s="19" customFormat="1">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" spans="2:4" s="19" customFormat="1">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+    </row>
+    <row r="17" spans="3:3" ht="16.2">
+      <c r="C17" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" ht="16.2">
+      <c r="C22" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6015CD08-89F1-414A-9F6E-B42264F46FA9}">
+  <dimension ref="B3:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="3" max="5" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="13.8">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="2:6" ht="14.4">
+      <c r="B4" s="4"/>
+      <c r="C4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="2:6" ht="13.8">
+      <c r="B5" s="4"/>
+      <c r="C5" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="2:6" ht="13.8">
+      <c r="B6" s="4"/>
+      <c r="C6" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="2:6" ht="13.8">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>